--- a/설계및정의서/DBTable.xlsx
+++ b/설계및정의서/DBTable.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="525" windowWidth="20175" windowHeight="9675"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="20175" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All Table List" sheetId="1" r:id="rId1"/>
-    <sheet name="UserInfo" sheetId="2" r:id="rId2"/>
-    <sheet name="CarInfo" sheetId="3" r:id="rId3"/>
-    <sheet name="RoomInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="Chart1" sheetId="5" r:id="rId1"/>
+    <sheet name="All Table List" sheetId="1" r:id="rId2"/>
+    <sheet name="UserInfo" sheetId="2" r:id="rId3"/>
+    <sheet name="CarInfo" sheetId="3" r:id="rId4"/>
+    <sheet name="RoomInfo" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -139,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -229,8 +235,872 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All Table List'!$A$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CAR_PART_ID</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nvarchar(50)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>자동차 부품</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All Table List'!$J$13:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>참조 테이블</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All Table List'!$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40CD-43F9-9229-1A7834E6EA97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="531867471"/>
+        <c:axId val="531863727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="531867471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531863727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="531863727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531867471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -276,7 +1146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +1181,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,10 +1393,10 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J5"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -537,7 +1407,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -553,7 +1423,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -569,7 +1439,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -585,7 +1455,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -601,7 +1471,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -617,7 +1487,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -649,7 +1519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -679,7 +1549,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -709,7 +1579,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -741,7 +1611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -771,7 +1641,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -801,7 +1671,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -817,7 +1687,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -833,7 +1703,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -849,7 +1719,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -865,7 +1735,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -881,7 +1751,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,7 +1783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -943,7 +1813,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -975,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1861,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +1877,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1893,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1909,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1925,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -1117,7 +1987,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -1149,36 +2019,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:J23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="E24:J24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,7 +2063,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -1204,7 +2074,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +2090,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +2106,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +2122,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +2138,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +2154,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1316,7 +2186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1346,7 +2216,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1376,7 +2246,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1408,7 +2278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1438,7 +2308,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1494,7 +2364,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -1505,7 +2375,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +2391,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +2407,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1553,7 +2423,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +2439,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +2455,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1617,7 +2487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1647,7 +2517,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1705,7 +2575,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -1716,7 +2586,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +2602,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1748,7 +2618,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +2634,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +2650,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +2666,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +2698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1858,7 +2728,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>2</v>
       </c>
